--- a/xworkz.xlsx
+++ b/xworkz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinay Viny\Desktop\xworkz-bulk-mail-app-logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinay Viny\Desktop\xworkz-bulk-mail-app-logs\mailApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E022488F-A779-4269-999F-03A82EDC1FD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDC28D0-EE71-4CE3-9395-7A73B9F315D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2964" windowWidth="20400" windowHeight="8964" xr2:uid="{17FE3567-98CC-4C0A-87CD-AF6DCADBD2FE}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>44053</v>
+        <v>44054</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44053</v>
+        <v>44054</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44053</v>
+        <v>44054</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>44054</v>
+        <v>44045</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44054</v>
+        <v>44055</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44055</v>
+        <v>44056</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
